--- a/input/manual_input_parameter_westeros.xlsx
+++ b/input/manual_input_parameter_westeros.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu47zip\Modelle\d2ix_dev\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu47zip\Modelle\d2ix_public\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21825" windowHeight="8740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21825" windowHeight="8740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="interestrate" sheetId="1" r:id="rId1"/>
     <sheet name="tax_emission" sheetId="12" r:id="rId2"/>
-    <sheet name="cat_emission" sheetId="13" r:id="rId3"/>
-    <sheet name="historical_new_capacity" sheetId="3" r:id="rId4"/>
-    <sheet name="historical_activity" sheetId="11" r:id="rId5"/>
+    <sheet name="peak_load_factor" sheetId="15" r:id="rId3"/>
+    <sheet name="cat_emission" sheetId="13" r:id="rId4"/>
+    <sheet name="historical_new_capacity" sheetId="3" r:id="rId5"/>
+    <sheet name="historical_activity" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="31">
   <si>
     <t>year</t>
   </si>
@@ -106,6 +107,21 @@
   </si>
   <si>
     <t>MUSD/Mt</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>secondary</t>
   </si>
 </sst>
 </file>
@@ -115,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +164,18 @@
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -186,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -227,12 +255,33 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -585,12 +634,12 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L6" sqref="L6"/>
       <selection pane="topRight" activeCell="L6" sqref="L6"/>
       <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -759,6 +808,134 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="9" ySplit="33" topLeftCell="J34" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="K52" sqref="K52"/>
+      <selection pane="topRight" activeCell="K52" sqref="K52"/>
+      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.109375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="12.109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="23" customFormat="1" ht="60.1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3">
+        <v>700</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3">
+        <v>710</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3">
+        <v>720</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:G1">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -805,7 +982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
@@ -813,7 +990,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -885,7 +1062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
